--- a/main/ValueSet-ConsentStatusVS.xlsx
+++ b/main/ValueSet-ConsentStatusVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -64,13 +64,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald (https://www.ths-greifswald.de/)</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald (https://www.ths-greifswald.de/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consent states are used to depict the participant’s will. Therefore, documentation should allow different status values. Further details from https://doi.org/10.1186/s12967-020-02457-y </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -403,28 +406,30 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -446,12 +451,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -464,10 +469,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -485,40 +490,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>12</v>
@@ -529,17 +534,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>12</v>
@@ -550,17 +555,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>12</v>
@@ -571,17 +576,17 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>12</v>
@@ -592,17 +597,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>12</v>
@@ -613,17 +618,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>12</v>
@@ -634,17 +639,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>12</v>
@@ -655,17 +660,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>12</v>
@@ -676,17 +681,17 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>12</v>
@@ -697,17 +702,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>12</v>
@@ -718,17 +723,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>12</v>
